--- a/Документы/Экономика.Расчеты.xlsx
+++ b/Документы/Экономика.Расчеты.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimas\Desktop\Диплом\Diplom\Документы\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,9 +116,6 @@
     <t>Разработка и тестирование программного продукта</t>
   </si>
   <si>
-    <t xml:space="preserve">  Затраты на дополнительную заработную плату команды разработчиков (15%)</t>
-  </si>
-  <si>
     <t>норма рабоего времени в месяц, часов</t>
   </si>
   <si>
@@ -166,13 +158,16 @@
     <t>Срок окупаемости</t>
   </si>
   <si>
-    <t>1 год 8 месяцев</t>
+    <t>1 год 6 месяцев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Затраты на дополнительную заработную плату команды разработчиков (20%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -500,11 +495,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -543,7 +562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,9 +597,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -628,6 +643,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -909,24 +934,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,13 +968,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -968,11 +993,11 @@
       <c r="F2" s="4">
         <v>7</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -993,12 +1018,12 @@
         <f>D3*E3</f>
         <v>1575.7575757575758</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <f>F3*1.24</f>
         <v>1953.939393939394</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1019,182 +1044,182 @@
         <f>D4*E4</f>
         <v>1696.969696969697</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <f>F4*1.24</f>
         <v>2104.2424242424245</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="9">
         <f>SUM(F3:F5)*0.24</f>
         <v>785.4545454545455</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="8">
         <f>SUM(F3:F7)</f>
         <v>4058.1818181818185</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10">
-        <f>(F8*15)/100</f>
-        <v>608.72727272727275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+        <f>(F8*20)/100</f>
+        <v>811.63636363636363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11">
         <f>SUM(F8,F10)*34.6/100</f>
-        <v>1614.7505454545455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+        <v>1684.957090909091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
       <c r="F12">
-        <f>2*(E3+E4)</f>
-        <v>820</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+        <f>2.5*(E3+E4)</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="11">
         <f>SUM(F8,F10,F11,F12)</f>
-        <v>7101.6596363636363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+        <v>7579.7752727272727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="F14">
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
       <c r="F15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16">
         <f>(F14*F15*20)/(100+20)</f>
         <v>1083.3333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
       <c r="F17">
         <f>(F14*F15-F16)*(1-0.18)</f>
         <v>4441.666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="10">
         <f>F17/F13</f>
-        <v>0.62544065670556359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.58598922881634652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
       <c r="B23" s="14">
         <v>0</v>
       </c>
@@ -1208,381 +1233,336 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <f>-F13</f>
-        <v>-7101.6596363636363</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-7579.7752727272727</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <f>B25</f>
-        <v>-7101.6596363636363</v>
-      </c>
-      <c r="C26" s="30">
+        <v>-7579.7752727272727</v>
+      </c>
+      <c r="C26" s="29">
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <f>D25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <f>E25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40">
+      <c r="B28" s="38">
+        <f>$F$17*0.25</f>
+        <v>1110.4166666666667</v>
+      </c>
+      <c r="C28" s="38">
         <f>$F$17</f>
         <v>4441.666666666667</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="38">
         <f t="shared" ref="D28:E28" si="0">$F$17</f>
         <v>4441.666666666667</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="38">
         <f t="shared" si="0"/>
         <v>4441.666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="23">
+        <v>36</v>
+      </c>
+      <c r="B29" s="22">
         <f>B25+B28</f>
-        <v>-7101.6596363636363</v>
-      </c>
-      <c r="C29" s="24">
+        <v>-6469.3586060606058</v>
+      </c>
+      <c r="C29" s="23">
         <f>C25+C28</f>
         <v>4441.666666666667</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <f>D25+D28</f>
         <v>4441.666666666667</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <f>E25+E28</f>
         <v>4441.666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="26">
+        <v>31</v>
+      </c>
+      <c r="B30" s="25">
         <f>B29</f>
-        <v>-7101.6596363636363</v>
-      </c>
-      <c r="C30" s="27">
+        <v>-6469.3586060606058</v>
+      </c>
+      <c r="C30" s="26">
         <f>B30+C29</f>
-        <v>-2659.9929696969693</v>
-      </c>
-      <c r="D30" s="26">
+        <v>-2027.6919393939388</v>
+      </c>
+      <c r="D30" s="25">
         <f>C30+D29</f>
-        <v>1781.6736969696976</v>
-      </c>
-      <c r="E30" s="28">
+        <v>2413.9747272727282</v>
+      </c>
+      <c r="E30" s="27">
         <f>D30+E29</f>
-        <v>6223.3403636363646</v>
+        <v>6855.6413939393951</v>
       </c>
       <c r="F30">
         <f>(-C30)/(D29/12)</f>
-        <v>7.1864725635340259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.4781921064301535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <f>1/(1+0.15)^B23</f>
         <v>1</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <f>1/(1+0.15)^C23</f>
         <v>0.86956521739130443</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <f>1/(1+0.15)^D23</f>
         <v>0.7561436672967865</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <f>1/(1+0.15)^E23</f>
         <v>0.65751623243198831</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="26">
+        <v>32</v>
+      </c>
+      <c r="B32" s="25">
         <f>B29*B31</f>
-        <v>-7101.6596363636363</v>
-      </c>
-      <c r="C32" s="27">
+        <v>-6469.3586060606058</v>
+      </c>
+      <c r="C32" s="26">
         <f>C29*C31</f>
         <v>3862.3188405797109</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="25">
         <f>D29*D31</f>
         <v>3358.538122243227</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <f>E29*E31</f>
         <v>2920.4679323854148</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="27">
+        <f>SUM(B32:E32)</f>
+        <v>3671.9662891477469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="28">
-        <f>SUM(B32:E32)</f>
-        <v>3039.6652588447164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="31">
+        <f>IRR(B29:E32)</f>
+        <v>0.33728076651978856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="33">
-        <f>IRR(B29:E32)</f>
-        <v>0.20855830968208089</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="31">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="30">
         <f>(-B26+E33)/(-B26)</f>
-        <v>1.4280218166582197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+        <v>1.4844426327993943</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="28"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="33"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:E22"/>
